--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249926.8680385994</v>
+        <v>-251814.4495550016</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>290.2567512140271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>117.591883978776</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>174.9442930587126</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>65.81090370928462</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>221.5182919986649</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>329.2630261709932</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>44.58467420294768</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>307.8765544416924</v>
       </c>
       <c r="W8" t="n">
-        <v>20.1453221938004</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>104.1967738238312</v>
+        <v>179.0889667773395</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>219.3945611646474</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>161.4046520073173</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>221.2306574774766</v>
+        <v>241.1995513078581</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>90.45344662162471</v>
+        <v>92.32080123903035</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>255.3303665522257</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>15.98360398438614</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23.30984749387309</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.1933710939412</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801204</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437412</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.710571738979</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>55.21598883571499</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>150.8260034050029</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857078</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1857.168914859137</v>
+        <v>1176.081332301712</v>
       </c>
       <c r="C2" t="n">
-        <v>1488.206397918725</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1129.940699311975</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>744.1524467137303</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y2" t="n">
-        <v>1857.168914859137</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.7691122461817</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W4" t="n">
-        <v>551.4175770764215</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X4" t="n">
-        <v>551.4175770764215</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.4175770764215</v>
+        <v>404.9282174162494</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.645612988121</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1408.645612988121</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1408.645612988121</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1022.857360389877</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1936.321828206976</v>
       </c>
       <c r="W8" t="n">
-        <v>2149.375138862102</v>
+        <v>1583.553172936862</v>
       </c>
       <c r="X8" t="n">
-        <v>2149.375138862102</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y8" t="n">
-        <v>2149.375138862102</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.0273259635869</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>184.0273259635869</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005475</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635869</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635869</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635869</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5057,31 +5057,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>939.0625057788493</v>
+        <v>1007.023210795543</v>
       </c>
       <c r="X13" t="n">
-        <v>711.072954880832</v>
+        <v>1007.023210795543</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.072954880832</v>
+        <v>1007.023210795543</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,13 +5261,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>485.404702608941</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>732.169830515405</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V16" t="n">
-        <v>853.6001774198821</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W16" t="n">
-        <v>564.1830073829216</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="X16" t="n">
-        <v>564.1830073829216</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.1830073829216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,25 +5513,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.130185042679</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,46 +5677,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609666</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>762.5369059776569</v>
+        <v>1255.280360145925</v>
       </c>
       <c r="W19" t="n">
-        <v>473.1197359406963</v>
+        <v>965.863190108964</v>
       </c>
       <c r="X19" t="n">
-        <v>245.130185042679</v>
+        <v>965.863190108964</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.130185042679</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,7 +5911,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799363</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227916</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V22" t="n">
-        <v>783.5599953231706</v>
+        <v>805.539183663959</v>
       </c>
       <c r="W22" t="n">
-        <v>494.14282528621</v>
+        <v>805.539183663959</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>805.539183663959</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6178,19 +6178,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609663</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550795</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181188</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X25" t="n">
-        <v>425.7555037884359</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.7555037884359</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6227,10 +6227,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011504</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>268.6754855415406</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.5190452905598</v>
+        <v>452.2146454274846</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440238</v>
+        <v>452.2146454274846</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440238</v>
+        <v>452.2146454274846</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818941</v>
+        <v>902.6804289818919</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652479</v>
+        <v>730.4517433652452</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652479</v>
+        <v>578.1022449763536</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6947,16 +6947,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7792,7 +7792,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>73.53204524669994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>182.3262245127598</v>
+        <v>107.4340315592515</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>32.7430821591806</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>57.18000134477751</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>30.9069858463514</v>
+        <v>10.93809201596991</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6841967022033</v>
+        <v>159.8168420847977</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>30.90698584635163</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>209.726051404651</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.5221326880642</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24652,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51.43535245943897</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965523</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>12.55539331853493</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>266838.5752058922</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
         <v>254168.8888295108</v>
@@ -26326,31 +26326,31 @@
         <v>254168.8888295108</v>
       </c>
       <c r="G2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="H2" t="n">
         <v>254168.8888295107</v>
       </c>
       <c r="I2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="J2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.389274426</v>
+        <v>264434.3892744252</v>
       </c>
       <c r="L2" t="n">
         <v>266838.5752058922</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058923</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058922</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26442,16 +26442,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106728</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-571621.2498585861</v>
+        <v>-571621.2498585862</v>
       </c>
       <c r="C6" t="n">
-        <v>18346.62935595817</v>
+        <v>18346.62935595846</v>
       </c>
       <c r="D6" t="n">
-        <v>18346.62935595844</v>
+        <v>18346.62935595834</v>
       </c>
       <c r="E6" t="n">
-        <v>-385153.0811829726</v>
+        <v>-385250.5403089449</v>
       </c>
       <c r="F6" t="n">
-        <v>140006.9552939235</v>
+        <v>139909.4961679513</v>
       </c>
       <c r="G6" t="n">
-        <v>140006.9552939234</v>
+        <v>139909.4961679513</v>
       </c>
       <c r="H6" t="n">
-        <v>140006.9552939234</v>
+        <v>139909.4961679513</v>
       </c>
       <c r="I6" t="n">
-        <v>140006.9552939234</v>
+        <v>139909.4961679512</v>
       </c>
       <c r="J6" t="n">
-        <v>-36416.26389866951</v>
+        <v>-36513.72302464175</v>
       </c>
       <c r="K6" t="n">
-        <v>83304.34534029018</v>
+        <v>83285.85160235531</v>
       </c>
       <c r="L6" t="n">
-        <v>114187.1677568089</v>
+        <v>114187.1677568087</v>
       </c>
       <c r="M6" t="n">
-        <v>-10270.94067616144</v>
+        <v>-10270.9406761616</v>
       </c>
       <c r="N6" t="n">
         <v>124530.0745576757</v>
       </c>
       <c r="O6" t="n">
-        <v>124530.0745576757</v>
+        <v>124530.0745576756</v>
       </c>
       <c r="P6" t="n">
-        <v>80367.46925482991</v>
+        <v>80367.46925483008</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,13 +26747,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26768,13 +26768,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855693</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>75.01614055698042</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>289.2841617629355</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.5787052778784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>152.7737496428102</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>185.3577537430465</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>40.46807450747582</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>122.6621468956802</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>19.8757040284425</v>
       </c>
       <c r="W8" t="n">
-        <v>329.0956465236126</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>19.83197231642217</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>224.1074838346392</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
